--- a/PartList.xlsx
+++ b/PartList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="48940" windowHeight="28960" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="31260" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Quadcopter.csv" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="Quadcopter" localSheetId="0">Quadcopter.csv!$A$1:$G$34</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
   <si>
     <t>LTST-C170EKT</t>
   </si>
@@ -403,9 +403,6 @@
     <t>http://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=2-1437565-7&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
   </si>
   <si>
-    <t>450-1129-ND</t>
-  </si>
-  <si>
     <t>TE Connectivity Alcoswitch Switches</t>
   </si>
   <si>
@@ -436,9 +433,6 @@
     <t>http://www.atmel.com/Images/Atmel-8266-MCU_Wireless-ATmega128RFA1_Datasheet.pdf</t>
   </si>
   <si>
-    <t>ATMEGA128RFA1-ZUR00DKR-ND</t>
-  </si>
-  <si>
     <t>Atmel</t>
   </si>
   <si>
@@ -460,18 +454,9 @@
     <t>IMU</t>
   </si>
   <si>
-    <t>http://www.st.com/st-web-ui/static/active/en/resource/technical/document/datasheet/DM00087365.pdf</t>
-  </si>
-  <si>
-    <t>497-13902-1-ND</t>
-  </si>
-  <si>
     <t>STMicroelectronics</t>
   </si>
   <si>
-    <t>LSM9DS0TR</t>
-  </si>
-  <si>
     <t>Various standard crystals. Proven footprints.</t>
   </si>
   <si>
@@ -493,9 +478,6 @@
     <t>Lab04</t>
   </si>
   <si>
-    <t>Lab04a</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -509,16 +491,53 @@
   </si>
   <si>
     <t>2 SMDs (one negative, one positive) 2-3mm on a side 2 mm between them.</t>
+  </si>
+  <si>
+    <t>LSM9DS1TR</t>
+  </si>
+  <si>
+    <t>497-14946-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.st.com/content/ccc/resource/technical/document/datasheet/1e/3f/2a/d6/25/eb/48/46/DM00103319.pdf/files/DM00103319.pdf/jcr:content/translations/en.DM00103319.pdf</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>450-1759-1-ND</t>
+  </si>
+  <si>
+    <t>ATMEGA128RFA1-ZU00-ND</t>
+  </si>
+  <si>
+    <t>Provided</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -541,15 +560,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -651,21 +698,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I34" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I34"/>
   <sortState ref="A2:G47">
     <sortCondition ref="D1:D47"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Description" dataDxfId="10"/>
-    <tableColumn id="2" name="DATASHEET" dataDxfId="9"/>
-    <tableColumn id="3" name="DIST" dataDxfId="8"/>
-    <tableColumn id="4" name="DISTPN" dataDxfId="7"/>
-    <tableColumn id="5" name="MFR" dataDxfId="6"/>
-    <tableColumn id="6" name="MPN" dataDxfId="5"/>
+    <tableColumn id="1" name="Description" dataDxfId="8"/>
+    <tableColumn id="2" name="DATASHEET" dataDxfId="7"/>
+    <tableColumn id="3" name="DIST" dataDxfId="6"/>
+    <tableColumn id="4" name="DISTPN" dataDxfId="5"/>
+    <tableColumn id="5" name="MFR" dataDxfId="4"/>
+    <tableColumn id="6" name="MPN" dataDxfId="3"/>
     <tableColumn id="7" name="VALUE" dataDxfId="2"/>
     <tableColumn id="9" name="Lab04" dataDxfId="1"/>
-    <tableColumn id="10" name="Lab04a" dataDxfId="0"/>
+    <tableColumn id="8" name="qty" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -996,7 +1043,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1004,8 +1051,8 @@
     <col min="1" max="1" width="61" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.1640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
@@ -1034,10 +1081,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1063,10 +1110,10 @@
         <v>88</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1091,8 +1138,8 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>139</v>
+      <c r="I3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1118,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1146,8 +1193,8 @@
       <c r="G5" s="1">
         <v>100</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>139</v>
+      <c r="I5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1172,8 +1219,8 @@
       <c r="G6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>139</v>
+      <c r="I6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1198,8 +1245,8 @@
       <c r="G7" s="1">
         <v>330</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>139</v>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1224,8 +1271,8 @@
       <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>139</v>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1248,10 +1295,10 @@
         <v>79</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1265,16 +1312,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>139</v>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1300,10 +1347,10 @@
         <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1328,8 +1375,8 @@
       <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>139</v>
+      <c r="I12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1354,8 +1401,11 @@
       <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>139</v>
+      <c r="H13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1380,8 +1430,8 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>139</v>
+      <c r="I14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1406,8 +1456,8 @@
       <c r="G15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>139</v>
+      <c r="I15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1432,8 +1482,8 @@
       <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>139</v>
+      <c r="I16" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1458,8 +1508,8 @@
       <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>139</v>
+      <c r="I17" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1484,8 +1534,8 @@
       <c r="G18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>139</v>
+      <c r="I18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1510,8 +1560,8 @@
       <c r="G19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>139</v>
+      <c r="I19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1536,8 +1586,8 @@
       <c r="G20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>139</v>
+      <c r="I20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1562,57 +1612,57 @@
       <c r="G21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>139</v>
+      <c r="I21" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1634,8 +1684,8 @@
       <c r="F24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>139</v>
+      <c r="I24" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1657,8 +1707,11 @@
       <c r="F25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>139</v>
+      <c r="H25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1680,8 +1733,8 @@
       <c r="F26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>139</v>
+      <c r="I26" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1703,8 +1756,8 @@
       <c r="F27" s="1">
         <v>748421245</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>139</v>
+      <c r="I27" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1726,31 +1779,31 @@
       <c r="F28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>139</v>
+      <c r="I28" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>139</v>
+      <c r="I29" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1775,68 +1828,68 @@
       <c r="G30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>139</v>
+      <c r="I30" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>139</v>
+      <c r="I31" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1844,14 +1897,13 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1859,12 +1911,10 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2" t="s">
-        <v>139</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/PartList.xlsx
+++ b/PartList.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="159">
   <si>
     <t>LTST-C170EKT</t>
   </si>
@@ -139,9 +139,6 @@
     <t>LTST-C170GKT</t>
   </si>
   <si>
-    <t>0805 footprint balun- Ember 351/357</t>
-  </si>
-  <si>
     <t>http://katalog.we-online.de/pbs/datasheet/748421245.pdf</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>Nonpolarized capacitor</t>
-  </si>
-  <si>
     <t>http://www.murata.com/~/media/webrenewal/support/library/catalog/products/capacitor/mlcc/c02e.ashx</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>100uF</t>
   </si>
   <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
     <t>http://www.avx.com/docs/Catalogs/taj.pdf</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>GRM21BR61E475KA12L</t>
   </si>
   <si>
-    <t>Schottky diode</t>
-  </si>
-  <si>
     <t>http://www.toshiba.com/taec/components2/Datasheet_Sync/200612/DST_CRS08-TDE_EN_1640.pdf</t>
   </si>
   <si>
@@ -289,9 +277,6 @@
     <t>360mV</t>
   </si>
   <si>
-    <t>AVR ISP 6 Pin</t>
-  </si>
-  <si>
     <t>http://portal.fciconnect.com/Comergent//fci/drawing/67996.pdf</t>
   </si>
   <si>
@@ -304,9 +289,6 @@
     <t>67997-206HLF</t>
   </si>
   <si>
-    <t>2 pin single inline pin header, socket, or connector</t>
-  </si>
-  <si>
     <t>http://multimedia.3m.com/mws/mediawebserver?66666UuZjcFSLXTtNxTElX&amp;VEVuQEcuZgVs6EVs6E666666--</t>
   </si>
   <si>
@@ -319,9 +301,6 @@
     <t>961102-6404-AR</t>
   </si>
   <si>
-    <t>10 pin single inline pin header, socket, or connector</t>
-  </si>
-  <si>
     <t>http://portal.fciconnect.com/Comergent//fci/drawing/68000.pdf</t>
   </si>
   <si>
@@ -331,9 +310,6 @@
     <t>68000-110HLF</t>
   </si>
   <si>
-    <t>FTDI Basic header with labels</t>
-  </si>
-  <si>
     <t>http://portal.fciconnect.com/Comergent//fci/drawing/68015.pdf</t>
   </si>
   <si>
@@ -355,9 +331,6 @@
     <t>10K</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
     <t>http://media.digikey.com/pdf/Data%20Sheets/Yageo%20PDFs/RC0805%20Pb%20Free.pdf</t>
   </si>
   <si>
@@ -397,9 +370,6 @@
     <t>RC0805JR-070RL</t>
   </si>
   <si>
-    <t>Pushbutton with 2 pins shorting 1 to 2 and two extra mounting pins 3 &amp; 4</t>
-  </si>
-  <si>
     <t>http://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=2-1437565-7&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
   </si>
   <si>
@@ -412,9 +382,6 @@
     <t>2.6A</t>
   </si>
   <si>
-    <t>Generic N-Channel MOSFET</t>
-  </si>
-  <si>
     <t>http://www.vishay.com/docs/68645/si2302cds.pdf</t>
   </si>
   <si>
@@ -427,9 +394,6 @@
     <t>SI2302CDS-T1-E3</t>
   </si>
   <si>
-    <t>ATmega128RFA1</t>
-  </si>
-  <si>
     <t>http://www.atmel.com/Images/Atmel-8266-MCU_Wireless-ATmega128RFA1_Datasheet.pdf</t>
   </si>
   <si>
@@ -451,15 +415,9 @@
     <t>LP3985IM5X-3.0/NOPB</t>
   </si>
   <si>
-    <t>IMU</t>
-  </si>
-  <si>
     <t>STMicroelectronics</t>
   </si>
   <si>
-    <t>Various standard crystals. Proven footprints.</t>
-  </si>
-  <si>
     <t>http://www.abracon.com/Resonators/abm3b.pdf</t>
   </si>
   <si>
@@ -472,9 +430,6 @@
     <t>ABM3B-16.000MHZ-B2-T</t>
   </si>
   <si>
-    <t>Voltage regulator (3.0V)</t>
-  </si>
-  <si>
     <t>Lab04</t>
   </si>
   <si>
@@ -502,9 +457,6 @@
     <t>http://www.st.com/content/ccc/resource/technical/document/datasheet/1e/3f/2a/d6/25/eb/48/46/DM00103319.pdf/files/DM00103319.pdf/jcr:content/translations/en.DM00103319.pdf</t>
   </si>
   <si>
-    <t>qty</t>
-  </si>
-  <si>
     <t>450-1759-1-ND</t>
   </si>
   <si>
@@ -512,6 +464,96 @@
   </si>
   <si>
     <t>Provided</t>
+  </si>
+  <si>
+    <t>qty design 1</t>
+  </si>
+  <si>
+    <t>qty design2</t>
+  </si>
+  <si>
+    <t>qty design 3</t>
+  </si>
+  <si>
+    <t>0805 0Ohm resistor</t>
+  </si>
+  <si>
+    <t>0805 100Ohm resistor</t>
+  </si>
+  <si>
+    <t>0805 10KOhm resistor</t>
+  </si>
+  <si>
+    <t>0805 330Ohm resistor</t>
+  </si>
+  <si>
+    <t>0805 5.1KOhm resistor</t>
+  </si>
+  <si>
+    <t>2x1 0.1" male header</t>
+  </si>
+  <si>
+    <t>Tactile buttons</t>
+  </si>
+  <si>
+    <t>100uF Tantalum Capacitor</t>
+  </si>
+  <si>
+    <t>220uF Tantalum Capacitor</t>
+  </si>
+  <si>
+    <t>0.1uF Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>0.22uF Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>4.7uF  Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>0.75pF  Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>1uF  Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>10uF  Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>12pF  Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>22pF  Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>0.01uF Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>LSM9DS1TR 9-Axis IMU</t>
+  </si>
+  <si>
+    <t>2x3 0.1" male header</t>
+  </si>
+  <si>
+    <t>1x10 0.1" pin male header</t>
+  </si>
+  <si>
+    <t>1x6 0.1" right handle male header</t>
+  </si>
+  <si>
+    <t>0805 Balun</t>
+  </si>
+  <si>
+    <t>ATmega128RFA1 Microcontroller</t>
+  </si>
+  <si>
+    <t>SOD-123 Schottky diode</t>
+  </si>
+  <si>
+    <t>3.0V Voltage Regulator</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
   </si>
 </sst>
 </file>
@@ -560,8 +602,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -584,22 +646,58 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -698,21 +796,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I34"/>
-  <sortState ref="A2:G47">
-    <sortCondition ref="D1:D47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K34" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K34"/>
+  <sortState ref="A2:J34">
+    <sortCondition ref="D1:D34"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Description" dataDxfId="8"/>
-    <tableColumn id="2" name="DATASHEET" dataDxfId="7"/>
-    <tableColumn id="3" name="DIST" dataDxfId="6"/>
-    <tableColumn id="4" name="DISTPN" dataDxfId="5"/>
-    <tableColumn id="5" name="MFR" dataDxfId="4"/>
-    <tableColumn id="6" name="MPN" dataDxfId="3"/>
-    <tableColumn id="7" name="VALUE" dataDxfId="2"/>
-    <tableColumn id="9" name="Lab04" dataDxfId="1"/>
-    <tableColumn id="8" name="qty" dataDxfId="0"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Description" dataDxfId="10"/>
+    <tableColumn id="2" name="DATASHEET" dataDxfId="9"/>
+    <tableColumn id="3" name="DIST" dataDxfId="8"/>
+    <tableColumn id="4" name="DISTPN" dataDxfId="7"/>
+    <tableColumn id="5" name="MFR" dataDxfId="6"/>
+    <tableColumn id="6" name="MPN" dataDxfId="5"/>
+    <tableColumn id="7" name="VALUE" dataDxfId="4"/>
+    <tableColumn id="9" name="Lab04" dataDxfId="3"/>
+    <tableColumn id="8" name="qty design 1" dataDxfId="2"/>
+    <tableColumn id="10" name="qty design2" dataDxfId="1"/>
+    <tableColumn id="11" name="qty design 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1040,16 +1140,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="61" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
@@ -1058,7 +1156,7 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1081,24 +1179,30 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1107,16 +1211,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1139,108 +1243,132 @@
         <v>14</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>330</v>
@@ -1248,510 +1376,570 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="I26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F27" s="1">
         <v>748421245</v>
@@ -1759,8 +1947,11 @@
       <c r="I27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1782,114 +1973,132 @@
       <c r="I28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1897,13 +2106,19 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>

--- a/PartList.xlsx
+++ b/PartList.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="158">
   <si>
     <t>LTST-C170EKT</t>
   </si>
@@ -461,9 +461,6 @@
   </si>
   <si>
     <t>ATMEGA128RFA1-ZU00-ND</t>
-  </si>
-  <si>
-    <t>Provided</t>
   </si>
   <si>
     <t>qty design 1</t>
@@ -1142,7 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1182,13 +1181,13 @@
         <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1254,7 +1253,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>84</v>
@@ -1289,7 +1288,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>84</v>
@@ -1321,7 +1320,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>84</v>
@@ -1353,7 +1352,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>84</v>
@@ -1385,7 +1384,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -1408,7 +1407,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>70</v>
@@ -1425,9 +1424,6 @@
       <c r="F9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
@@ -1440,7 +1436,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>97</v>
@@ -1466,7 +1462,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -1486,9 +1482,6 @@
       <c r="G11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
@@ -1501,7 +1494,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
@@ -1527,7 +1520,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1547,9 +1540,6 @@
       <c r="G13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
@@ -1559,7 +1549,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -1588,7 +1578,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
@@ -1617,7 +1607,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>40</v>
@@ -1646,7 +1636,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -1675,7 +1665,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
@@ -1704,7 +1694,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>24</v>
@@ -1733,7 +1723,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
@@ -1762,7 +1752,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -1791,7 +1781,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>125</v>
@@ -1820,7 +1810,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>113</v>
@@ -1846,7 +1836,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>66</v>
@@ -1872,7 +1862,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>74</v>
@@ -1889,9 +1879,6 @@
       <c r="F25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I25" s="1">
         <v>1</v>
       </c>
@@ -1901,7 +1888,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>77</v>
@@ -1927,7 +1914,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
@@ -1979,7 +1966,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>105</v>
@@ -2005,7 +1992,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>61</v>
@@ -2037,7 +2024,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>108</v>
@@ -2063,7 +2050,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>101</v>
